--- a/files/input.xlsx
+++ b/files/input.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="23040" windowHeight="9215"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Link 1</t>
   </si>
@@ -31,7 +31,7 @@
     <t>https://www.idealista.it/aree/vendita-case/con-aste_no/?ordine=area-asc&amp;shape=%28%28k_yhGuo%7C%7D%40uHaZIi%40fEsFnEfHbFlEhAbAv%40XpAjF_GjDoGrC%29%29</t>
   </si>
   <si>
-    <t>https://www.casa.it/srp/?tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.54814422403945%2C10.310815940818427]%2C[43.55078807892381%2C10.309099327048896]%2C[43.55236656051868%2C10.313712726554511]%2C[43.55132461178853%2C10.31501091571772]%2C[43.55018155776007%2C10.313390861472724]%2C[43.548781870241235%2C10.312167774161933]%2C[43.548595242782866%2C10.312071214637397]]%2C%22bbox%22:[[43.55384391962995%2C10.305784116706489]%2C[43.54666672520973%2C10.318326126060127]]%2C%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
+    <t>https://www.casa.it/srp/?tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824%2C10.312495672887065]%2C[43.55635061711003%2C10.312699520772197]%2C[43.559367301940625%2C10.314759457295635]%2C[43.55970939068563%2C10.314501965230205]%2C[43.558418772988844%2C10.30888005513499]%2C[43.5575635291655%2C10.309169733708599]%2C[43.557097027418095%2C10.309470141118267]%2C[43.557097027418095%2C10.310060227101543]%2C[43.556109586806535%2C10.310489380543926]]%2C%22bbox%22:[[43.56155197165589%2C10.30314012784312]%2C[43.55426683939984%2C10.320499384587505]]%2C%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
   </si>
   <si>
     <t>https://www.immobiliare.it/search-list/?vrt=43.547918%2C10.309693%3B43.548431%2C10.309693%3B43.548626%2C10.304639%3B43.547926%2C10.304468%3B43.547179%2C10.304414%3B43.547498%2C10.306882%3B43.547397%2C10.309414%3B43.547156%2C10.310615%3B43.547319%2C10.311152%3B43.547701%2C10.311087%3B43.547879%2C10.310165%3B43.547918%2C10.309693&amp;idContratto=1&amp;idCategoria=1&amp;tipoProprieta=1&amp;criterio=superficie&amp;ordine=asc&amp;noAste=1&amp;__lang=it&amp;pag=1&amp;slau=1</t>
@@ -40,7 +40,7 @@
     <t>https://www.idealista.it/aree/vendita-case/con-aste_no/?ordine=area-asc&amp;shape=%28%28_ixhGqq%7B%7D%40eHg%40PaED%7DFJuCBgDHeG%7EADf%40_EIgAvAe%40d%40jCMLc%40lFQzMz%40nN%29%29</t>
   </si>
   <si>
-    <t>https://www.casa.it/srp/?tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.54770371113515%2C10.304394238336933]%2C[43.547812578833%2C10.305831902368915]%2C[43.54793699881836%2C10.306840412958515]%2C[43.547812578833%2C10.309275858744037]%2C[43.54754818551138%2C10.310681336267841]%2C[43.54757929066825%2C10.311099760874164]%2C[43.547812578833%2C10.311013930185688]%2C[43.54775036874402%2C10.310670607431781]%2C[43.54795255129847%2C10.30972646985854]%2C[43.548403571476115%2C10.309747927530658]%2C[43.54870684176693%2C10.304587357386005]]%2C%22bbox%22:[[43.55173168499989%2C10.3017227581581]%2C[43.5445231323233%2C10.313771241052997]]%2C%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
+    <t>https://www.casa.it/srp/?page=2&amp;tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824,10.312495672887065],[43.55635061711003,10.312699520772197],[43.559367301940625,10.314759457295635],[43.55970939068563,10.314501965230205],[43.558418772988844,10.30888005513499],[43.5575635291655,10.309169733708599],[43.557097027418095,10.309470141118267],[43.557097027418095,10.310060227101543],[43.556109586806535,10.310489380543926]],%22bbox%22:[[43.56155197165589,10.30314012784312],[43.55426683939984,10.320499384587505]],%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
   </si>
   <si>
     <t>https://www.immobiliare.it/search-list/?vrt=43.548533%2C10.317353%3B43.549948%2C10.315754%3B43.549645%2C10.315132%3B43.550539%2C10.31422%3B43.549792%2C10.313222%3B43.548019%2C10.311999%3B43.547662%2C10.312171%3B43.547032%2C10.312557%3B43.547265%2C10.313255%3B43.547211%2C10.313491%3B43.547351%2C10.313512%3B43.548533%2C10.317353&amp;idContratto=1&amp;idCategoria=1&amp;tipoProprieta=1&amp;criterio=superficie&amp;ordine=asc&amp;noAste=1&amp;__lang=it&amp;pag=1</t>
@@ -49,61 +49,393 @@
     <t>https://www.idealista.it/aree/vendita-case/con-aste_no/?ordine=area-asc&amp;shape=%28%28_nxhGca%7D%7D%40cGsCaDsC%7BAeCtBmCcAaBtIiKvH%7C%5C%7DDhB%29%29</t>
   </si>
   <si>
-    <t>https://www.casa.it/srp/?tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.550600912873996%2C10.314179690413651]%2C[43.55002549372123%2C10.314866335921463]%2C[43.549675573982746%2C10.315134556822953]%2C[43.550009941775976%2C10.315746100478348]%2C[43.54859469796135%2C10.317344697051224]%2C[43.547366052758285%2C10.313557417922196]%2C[43.54717942091616%2C10.313493044905838]%2C[43.547257184253944%2C10.31319263749617]%2C[43.54706277572141%2C10.312591822676834]%2C[43.54813590299896%2C10.311905177169022]%2C[43.549916630020284%2C10.313299925856766]]%2C%22bbox%22:[[43.552490426317206%2C10.30594530873793]%2C[43.54517309211847%2C10.323304565482315]]%2C%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
+    <t>https://www.casa.it/srp/?page=3&amp;tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824,10.312495672887065],[43.55635061711003,10.312699520772197],[43.559367301940625,10.314759457295635],[43.55970939068563,10.314501965230205],[43.558418772988844,10.30888005513499],[43.5575635291655,10.309169733708599],[43.557097027418095,10.309470141118267],[43.557097027418095,10.310060227101543],[43.556109586806535,10.310489380543926]],%22bbox%22:[[43.56155197165589,10.30314012784312],[43.55426683939984,10.320499384587505]],%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
   </si>
   <si>
     <t>https://www.immobiliare.it/search-list/?vrt=43.544699%2C10.304929%3B43.544123%2C10.304704%3B43.544131%2C10.304028%3B43.54648%2C10.304511%3B43.547179%2C10.304414%3B43.547498%2C10.306882%3B43.547397%2C10.309414%3B43.547164%2C10.310519%3B43.546495%2C10.310905%3B43.544893%2C10.305927%3B43.54466%2C10.305283%3B43.544699%2C10.304929&amp;idContratto=1&amp;idCategoria=1&amp;tipoProprieta=1&amp;criterio=superficie&amp;ordine=asc&amp;noAste=1&amp;__lang=it&amp;pag=2</t>
   </si>
   <si>
     <t>https://www.idealista.it/aree/vendita-case/con-aste_no/lista-4?ordine=area-asc&amp;shape=%28%28%7DuwhGio%7B%7D%40qLoAsDJy%40yNRwLTwDNsAlCsAvHd%5Dr%40pCIbAtB%5C%3FzC%29%29</t>
-  </si>
-  <si>
-    <t>https://www.casa.it/srp/?page=3&amp;tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.544140951541195,10.304084627165832],[43.54415650500073,10.304824916853942],[43.54475531014162,10.304964391722716],[43.544700873556415,10.305318443312682],[43.54651280776465,10.31087598039154],[43.54721268193292,10.310479013457336],[43.547274892576816,10.310210792555846],[43.54739931367204,10.309223739638366],[43.54750040562281,10.306917039885558],[43.547298221551756,10.305157510771789],[43.54721268193292,10.304406492247619],[43.54655946629534,10.304481594100036]],%22bbox%22:[[43.54946388873156,10.298800675406493],[43.54217729504102,10.316159932150878]],%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -113,46 +445,338 @@
     </border>
     <border>
       <left style="dotted">
-        <color rgb="FFccccff"/>
+        <color rgb="FFCCCCFF"/>
       </left>
       <right style="dotted">
-        <color rgb="FFccccff"/>
+        <color rgb="FFCCCCFF"/>
       </right>
       <top style="dotted">
-        <color rgb="FFccccff"/>
+        <color rgb="FFCCCCFF"/>
       </top>
       <bottom style="dotted">
-        <color rgb="FFccccff"/>
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -163,10 +787,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -204,71 +828,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -296,7 +920,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -319,11 +943,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -332,13 +956,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -348,7 +972,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -357,7 +981,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -366,7 +990,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -374,10 +998,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -437,82 +1061,87 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="89.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89.8611111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1481481481481" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.casa.it/srp/?tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824%2C10.312495672887065]%2C[43.55635061711003%2C10.312699520772197]%2C[43.559367301940625%2C10.314759457295635]%2C[43.55970939068563%2C10.314501965230205]%2C[43.558418772988844%2C10.30888005513499]%2C[43.5575635291655%2C10.309169733708599]%2C[43.557097027418095%2C10.309470141118267]%2C[43.557097027418095%2C10.310060227101543]%2C[43.556109586806535%2C10.310489380543926]]%2C%22bbox%22:[[43.56155197165589%2C10.30314012784312]%2C[43.55426683939984%2C10.320499384587505]]%2C%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.casa.it/srp/?page=2&amp;tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824,10.312495672887065],[43.55635061711003,10.312699520772197],[43.559367301940625,10.314759457295635],[43.55970939068563,10.314501965230205],[43.558418772988844,10.30888005513499],[43.5575635291655,10.309169733708599],[43.557097027418095,10.309470141118267],[43.557097027418095,10.310060227101543],[43.556109586806535,10.310489380543926]],%22bbox%22:[[43.56155197165589,10.30314012784312],[43.55426683939984,10.320499384587505]],%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://www.casa.it/srp/?page=3&amp;tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824,10.312495672887065],[43.55635061711003,10.312699520772197],[43.559367301940625,10.314759457295635],[43.55970939068563,10.314501965230205],[43.558418772988844,10.30888005513499],[43.5575635291655,10.309169733708599],[43.557097027418095,10.309470141118267],[43.557097027418095,10.310060227101543],[43.556109586806535,10.310489380543926]],%22bbox%22:[[43.56155197165589,10.30314012784312],[43.55426683939984,10.320499384587505]],%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/files/input.xlsx
+++ b/files/input.xlsx
@@ -491,7 +491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>

--- a/files/input.xlsx
+++ b/files/input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Link 1</t>
   </si>
@@ -32,24 +32,6 @@
   </si>
   <si>
     <t>https://www.casa.it/srp/?tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824%2C10.312495672887065]%2C[43.55635061711003%2C10.312699520772197]%2C[43.559367301940625%2C10.314759457295635]%2C[43.55970939068563%2C10.314501965230205]%2C[43.558418772988844%2C10.30888005513499]%2C[43.5575635291655%2C10.309169733708599]%2C[43.557097027418095%2C10.309470141118267]%2C[43.557097027418095%2C10.310060227101543]%2C[43.556109586806535%2C10.310489380543926]]%2C%22bbox%22:[[43.56155197165589%2C10.30314012784312]%2C[43.55426683939984%2C10.320499384587505]]%2C%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
-  </si>
-  <si>
-    <t>https://www.immobiliare.it/search-list/?vrt=43.547918%2C10.309693%3B43.548431%2C10.309693%3B43.548626%2C10.304639%3B43.547926%2C10.304468%3B43.547179%2C10.304414%3B43.547498%2C10.306882%3B43.547397%2C10.309414%3B43.547156%2C10.310615%3B43.547319%2C10.311152%3B43.547701%2C10.311087%3B43.547879%2C10.310165%3B43.547918%2C10.309693&amp;idContratto=1&amp;idCategoria=1&amp;tipoProprieta=1&amp;criterio=superficie&amp;ordine=asc&amp;noAste=1&amp;__lang=it&amp;pag=1&amp;slau=1</t>
-  </si>
-  <si>
-    <t>https://www.idealista.it/aree/vendita-case/con-aste_no/?ordine=area-asc&amp;shape=%28%28_ixhGqq%7B%7D%40eHg%40PaED%7DFJuCBgDHeG%7EADf%40_EIgAvAe%40d%40jCMLc%40lFQzMz%40nN%29%29</t>
-  </si>
-  <si>
-    <t>https://www.casa.it/srp/?page=2&amp;tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824,10.312495672887065],[43.55635061711003,10.312699520772197],[43.559367301940625,10.314759457295635],[43.55970939068563,10.314501965230205],[43.558418772988844,10.30888005513499],[43.5575635291655,10.309169733708599],[43.557097027418095,10.309470141118267],[43.557097027418095,10.310060227101543],[43.556109586806535,10.310489380543926]],%22bbox%22:[[43.56155197165589,10.30314012784312],[43.55426683939984,10.320499384587505]],%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
-  </si>
-  <si>
-    <t>https://www.immobiliare.it/search-list/?vrt=43.548533%2C10.317353%3B43.549948%2C10.315754%3B43.549645%2C10.315132%3B43.550539%2C10.31422%3B43.549792%2C10.313222%3B43.548019%2C10.311999%3B43.547662%2C10.312171%3B43.547032%2C10.312557%3B43.547265%2C10.313255%3B43.547211%2C10.313491%3B43.547351%2C10.313512%3B43.548533%2C10.317353&amp;idContratto=1&amp;idCategoria=1&amp;tipoProprieta=1&amp;criterio=superficie&amp;ordine=asc&amp;noAste=1&amp;__lang=it&amp;pag=1</t>
-  </si>
-  <si>
-    <t>https://www.idealista.it/aree/vendita-case/con-aste_no/?ordine=area-asc&amp;shape=%28%28_nxhGca%7D%7D%40cGsCaDsC%7BAeCtBmCcAaBtIiKvH%7C%5C%7DDhB%29%29</t>
-  </si>
-  <si>
-    <t>https://www.casa.it/srp/?page=3&amp;tr=vendita&amp;exclude_auction=true&amp;sortType=surface_asc&amp;geopolygon={%22polygon%22:[[43.55615623790824,10.312495672887065],[43.55635061711003,10.312699520772197],[43.559367301940625,10.314759457295635],[43.55970939068563,10.314501965230205],[43.558418772988844,10.30888005513499],[43.5575635291655,10.309169733708599],[43.557097027418095,10.309470141118267],[43.557097027418095,10.310060227101543],[43.556109586806535,10.310489380543926]],%22bbox%22:[[43.56155197165589,10.30314012784312],[43.55426683939984,10.320499384587505]],%22zoom%22:17}&amp;precision=7&amp;propertyTypeGroup=case</t>
   </si>
 </sst>
 </file>
@@ -447,7 +429,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -480,28 +462,6 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
